--- a/Data_frame/balancos_definitivos/BMEB3.xlsx
+++ b/Data_frame/balancos_definitivos/BMEB3.xlsx
@@ -894,10 +894,10 @@
         <v>11523823.616</v>
       </c>
       <c r="AY2" t="n">
-        <v>189812.992</v>
+        <v>11975530.496</v>
       </c>
       <c r="AZ2" t="n">
-        <v>189948</v>
+        <v>12455377.92</v>
       </c>
       <c r="BA2" t="n">
         <v>13064905.728</v>
@@ -1081,10 +1081,10 @@
         <v>5413547.008</v>
       </c>
       <c r="AY3" t="n">
-        <v>67</v>
+        <v>5423211.008</v>
       </c>
       <c r="AZ3" t="n">
-        <v>66</v>
+        <v>5419362.816</v>
       </c>
       <c r="BA3" t="n">
         <v>5581151.232</v>
@@ -1268,10 +1268,10 @@
         <v>1248633.984</v>
       </c>
       <c r="AY4" t="n">
-        <v>1</v>
+        <v>1252747.008</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>984729.9840000001</v>
       </c>
       <c r="BA4" t="n">
         <v>721292.032</v>
@@ -1455,10 +1455,10 @@
         <v>445279.008</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>607524.992</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>415880.992</v>
       </c>
       <c r="BA5" t="n">
         <v>770260.992</v>
@@ -1642,10 +1642,10 @@
         <v>328556</v>
       </c>
       <c r="AY6" t="n">
-        <v>66</v>
+        <v>335060.992</v>
       </c>
       <c r="AZ6" t="n">
-        <v>66</v>
+        <v>348539.008</v>
       </c>
       <c r="BA6" t="n">
         <v>73334</v>
@@ -1829,10 +1829,10 @@
         <v>127127</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>91085</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>109429</v>
       </c>
       <c r="BA7" t="n">
         <v>82795</v>
@@ -2016,10 +2016,10 @@
         <v>2736</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="BA8" t="n">
         <v>516</v>
@@ -2203,10 +2203,10 @@
         <v>2670109.952</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>2765644.032</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>3160880.128</v>
       </c>
       <c r="BA9" t="n">
         <v>3605627.904</v>
@@ -2577,10 +2577,10 @@
         <v>474252.992</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>256248.992</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>337132</v>
       </c>
       <c r="BA11" t="n">
         <v>262236.992</v>
@@ -2764,10 +2764,10 @@
         <v>116852</v>
       </c>
       <c r="AY12" t="n">
-        <v>109161</v>
+        <v>113633</v>
       </c>
       <c r="AZ12" t="n">
-        <v>109296</v>
+        <v>61878</v>
       </c>
       <c r="BA12" t="n">
         <v>65088</v>
@@ -2951,10 +2951,10 @@
         <v>5343200.768</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>5761196.032</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>6238730.752</v>
       </c>
       <c r="BA13" t="n">
         <v>6677423.104</v>
@@ -3138,10 +3138,10 @@
         <v>5140</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>16828</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>118984</v>
       </c>
       <c r="BA14" t="n">
         <v>142595.008</v>
@@ -3325,10 +3325,10 @@
         <v>639932.032</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>586497.9840000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>599286.976</v>
       </c>
       <c r="BA15" t="n">
         <v>615576</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>48963</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>109296</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>3978768.896</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>4451140.096</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>4733943.808</v>
       </c>
       <c r="BA18" t="n">
         <v>5062750.208</v>
@@ -4260,10 +4260,10 @@
         <v>694126.976</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>682091.008</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>766270.0159999999</v>
       </c>
       <c r="BA20" t="n">
         <v>835270.0159999999</v>
@@ -4447,10 +4447,10 @@
         <v>25233</v>
       </c>
       <c r="AY21" t="n">
-        <v>60198</v>
+        <v>24639</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>20246</v>
       </c>
       <c r="BA21" t="n">
         <v>21232</v>
@@ -4634,10 +4634,10 @@
         <v>767075.968</v>
       </c>
       <c r="AY22" t="n">
-        <v>80585</v>
+        <v>791123.008</v>
       </c>
       <c r="AZ22" t="n">
-        <v>80586</v>
+        <v>797283.968</v>
       </c>
       <c r="BA22" t="n">
         <v>806332.032</v>
@@ -4821,10 +4821,10 @@
         <v>532550.0159999999</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>549948.032</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0</v>
+        <v>564406.976</v>
       </c>
       <c r="BA23" t="n">
         <v>583036.032</v>
@@ -5008,10 +5008,10 @@
         <v>164880.992</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>159008</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>151156.992</v>
       </c>
       <c r="BA24" t="n">
         <v>142038</v>
@@ -5382,10 +5382,10 @@
         <v>69645</v>
       </c>
       <c r="AY26" t="n">
-        <v>189812.992</v>
+        <v>82167</v>
       </c>
       <c r="AZ26" t="n">
-        <v>189948</v>
+        <v>81720</v>
       </c>
       <c r="BA26" t="n">
         <v>81258</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AY27" t="n">
-        <v>24366</v>
+        <v>0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>34571</v>
+        <v>0</v>
       </c>
       <c r="BA27" t="n">
         <v>0</v>
@@ -5756,10 +5756,10 @@
         <v>11523823.616</v>
       </c>
       <c r="AY28" t="n">
-        <v>350</v>
+        <v>11975530.496</v>
       </c>
       <c r="AZ28" t="n">
-        <v>350</v>
+        <v>12455377.92</v>
       </c>
       <c r="BA28" t="n">
         <v>13064905.728</v>
@@ -5943,10 +5943,10 @@
         <v>3575908.096</v>
       </c>
       <c r="AY29" t="n">
-        <v>1349</v>
+        <v>4253090.048</v>
       </c>
       <c r="AZ29" t="n">
-        <v>2089</v>
+        <v>4499202.048</v>
       </c>
       <c r="BA29" t="n">
         <v>4579444.224</v>
@@ -6130,10 +6130,10 @@
         <v>2705171.968</v>
       </c>
       <c r="AY30" t="n">
-        <v>15198</v>
+        <v>3393500.928</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25384</v>
+        <v>3486223.872</v>
       </c>
       <c r="BA30" t="n">
         <v>3541900.032</v>
@@ -6317,10 +6317,10 @@
         <v>106683</v>
       </c>
       <c r="AY31" t="n">
-        <v>6748</v>
+        <v>90187</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6748</v>
+        <v>131958</v>
       </c>
       <c r="BA31" t="n">
         <v>107218</v>
@@ -6504,10 +6504,10 @@
         <v>49259</v>
       </c>
       <c r="AY32" t="n">
-        <v>721</v>
+        <v>70244</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0</v>
+        <v>70004</v>
       </c>
       <c r="BA32" t="n">
         <v>69343</v>
@@ -6691,10 +6691,10 @@
         <v>84546</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>87934</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>124225</v>
       </c>
       <c r="BA33" t="n">
         <v>98761</v>
@@ -6878,10 +6878,10 @@
         <v>6059</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>3854</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>15670</v>
       </c>
       <c r="BA34" t="n">
         <v>2553</v>
@@ -7439,10 +7439,10 @@
         <v>0</v>
       </c>
       <c r="AY37" t="n">
-        <v>108250</v>
+        <v>0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>98808</v>
+        <v>0</v>
       </c>
       <c r="BA37" t="n">
         <v>0</v>
@@ -7626,10 +7626,10 @@
         <v>624188.992</v>
       </c>
       <c r="AY38" t="n">
-        <v>0</v>
+        <v>607369.9840000001</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>671121.024</v>
       </c>
       <c r="BA38" t="n">
         <v>759668.992</v>
@@ -7813,10 +7813,10 @@
         <v>6880187.904</v>
       </c>
       <c r="AY39" t="n">
-        <v>0</v>
+        <v>6609331.2</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>6831449.088</v>
       </c>
       <c r="BA39" t="n">
         <v>7309917.184</v>
@@ -8000,10 +8000,10 @@
         <v>6087332.864</v>
       </c>
       <c r="AY40" t="n">
-        <v>0</v>
+        <v>5800022.016</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>5891651.072</v>
       </c>
       <c r="BA40" t="n">
         <v>6116174.848</v>
@@ -8374,7 +8374,7 @@
         <v>1740</v>
       </c>
       <c r="AY42" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="AZ42" t="n">
         <v>0</v>
@@ -8561,10 +8561,10 @@
         <v>0</v>
       </c>
       <c r="AY43" t="n">
-        <v>108250</v>
+        <v>0</v>
       </c>
       <c r="AZ43" t="n">
-        <v>98808</v>
+        <v>0</v>
       </c>
       <c r="BA43" t="n">
         <v>0</v>
@@ -9309,10 +9309,10 @@
         <v>0</v>
       </c>
       <c r="AY47" t="n">
-        <v>57197</v>
+        <v>0</v>
       </c>
       <c r="AZ47" t="n">
-        <v>56569</v>
+        <v>0</v>
       </c>
       <c r="BA47" t="n">
         <v>0</v>
@@ -9496,10 +9496,10 @@
         <v>791115.008</v>
       </c>
       <c r="AY48" t="n">
-        <v>171652.992</v>
+        <v>809036.032</v>
       </c>
       <c r="AZ48" t="n">
-        <v>171652.992</v>
+        <v>939798.0159999999</v>
       </c>
       <c r="BA48" t="n">
         <v>1168665.984</v>
@@ -9683,10 +9683,10 @@
         <v>250</v>
       </c>
       <c r="AY49" t="n">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="AZ49" t="n">
-        <v>432</v>
+        <v>236</v>
       </c>
       <c r="BA49" t="n">
         <v>0</v>
@@ -10057,10 +10057,10 @@
         <v>1067478.016</v>
       </c>
       <c r="AY51" t="n">
-        <v>3610</v>
+        <v>1112835.968</v>
       </c>
       <c r="AZ51" t="n">
-        <v>3610</v>
+        <v>1124491.008</v>
       </c>
       <c r="BA51" t="n">
         <v>1175544.96</v>
@@ -10244,10 +10244,10 @@
         <v>492708</v>
       </c>
       <c r="AY52" t="n">
-        <v>-118440</v>
+        <v>492708</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-119126</v>
+        <v>597539.968</v>
       </c>
       <c r="BA52" t="n">
         <v>597539.968</v>
@@ -10431,10 +10431,10 @@
         <v>43375</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>43375</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0</v>
+        <v>43375</v>
       </c>
       <c r="BA53" t="n">
         <v>43375</v>
@@ -10618,10 +10618,10 @@
         <v>113</v>
       </c>
       <c r="AY54" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="BA54" t="n">
         <v>106</v>
@@ -10805,10 +10805,10 @@
         <v>541620.992</v>
       </c>
       <c r="AY55" t="n">
-        <v>0</v>
+        <v>541620.992</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0</v>
+        <v>478081.984</v>
       </c>
       <c r="BA55" t="n">
         <v>474036.992</v>
@@ -10992,10 +10992,10 @@
         <v>-10339</v>
       </c>
       <c r="AY56" t="n">
-        <v>0</v>
+        <v>-5109</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="BA56" t="n">
         <v>13368</v>
@@ -11178,8 +11178,12 @@
       <c r="AX57" t="n">
         <v>0</v>
       </c>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
+      <c r="AY57" t="n">
+        <v>40130</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
       <c r="BA57" t="n">
         <v>47119</v>
       </c>
@@ -11361,8 +11365,12 @@
       <c r="AX58" t="n">
         <v>636964.992</v>
       </c>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
+      <c r="AY58" t="n">
+        <v>655587.008</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>809446.976</v>
+      </c>
       <c r="BA58" t="n">
         <v>882252.992</v>
       </c>
@@ -11545,10 +11553,10 @@
         <v>-149659.008</v>
       </c>
       <c r="AY59" t="n">
-        <v>0</v>
+        <v>-279056</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0</v>
+        <v>-327936</v>
       </c>
       <c r="BA59" t="n">
         <v>-326120</v>
@@ -11732,10 +11740,10 @@
         <v>487305.984</v>
       </c>
       <c r="AY60" t="n">
-        <v>0</v>
+        <v>376531.04</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0</v>
+        <v>481511.008</v>
       </c>
       <c r="BA60" t="n">
         <v>556132.992</v>
@@ -11919,10 +11927,10 @@
         <v>-423143.008</v>
       </c>
       <c r="AY61" t="n">
-        <v>0</v>
+        <v>-445104.064</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0</v>
+        <v>-417344</v>
       </c>
       <c r="BA61" t="inlineStr"/>
       <c r="BB61" t="inlineStr"/>
@@ -12088,10 +12096,10 @@
         <v>59651</v>
       </c>
       <c r="AY62" t="n">
-        <v>0</v>
+        <v>63027</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>67597</v>
       </c>
       <c r="BA62" t="n">
         <v>71628</v>
@@ -12275,10 +12283,10 @@
         <v>-107502</v>
       </c>
       <c r="AY63" t="n">
-        <v>-183</v>
+        <v>-122074</v>
       </c>
       <c r="AZ63" t="n">
-        <v>1032</v>
+        <v>-109736</v>
       </c>
       <c r="BA63" t="n">
         <v>-107693</v>
@@ -12462,10 +12470,10 @@
         <v>-241927.008</v>
       </c>
       <c r="AY64" t="n">
-        <v>0</v>
+        <v>-199014.976</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0</v>
+        <v>-215304.992</v>
       </c>
       <c r="BA64" t="n">
         <v>-213450</v>
@@ -12649,10 +12657,10 @@
         <v>-35249</v>
       </c>
       <c r="AY65" t="n">
-        <v>0</v>
+        <v>-34369.992</v>
       </c>
       <c r="AZ65" t="n">
-        <v>-135</v>
+        <v>-33708</v>
       </c>
       <c r="BA65" t="n">
         <v>-36452</v>
@@ -12836,10 +12844,10 @@
         <v>25162</v>
       </c>
       <c r="AY66" t="n">
-        <v>-1177</v>
+        <v>31900</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-1422</v>
+        <v>39930</v>
       </c>
       <c r="BA66" t="n">
         <v>14090</v>
@@ -13023,10 +13031,10 @@
         <v>-140126</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>-217934.032</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>-182832.992</v>
       </c>
       <c r="BA67" t="n">
         <v>-231111.008</v>
@@ -13210,10 +13218,10 @@
         <v>16848</v>
       </c>
       <c r="AY68" t="n">
-        <v>-117</v>
+        <v>33362</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-160</v>
+        <v>16711</v>
       </c>
       <c r="BA68" t="n">
         <v>17498</v>
@@ -13397,10 +13405,10 @@
         <v>64163</v>
       </c>
       <c r="AY69" t="n">
-        <v>0</v>
+        <v>-68573</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0</v>
+        <v>64167</v>
       </c>
       <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="inlineStr"/>
@@ -13566,10 +13574,10 @@
         <v>3685</v>
       </c>
       <c r="AY70" t="n">
-        <v>-117</v>
+        <v>-6840</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-160</v>
+        <v>780</v>
       </c>
       <c r="BA70" t="inlineStr"/>
       <c r="BB70" t="inlineStr"/>
@@ -13734,8 +13742,12 @@
       <c r="AX71" t="n">
         <v>4797</v>
       </c>
-      <c r="AY71" t="inlineStr"/>
-      <c r="AZ71" t="inlineStr"/>
+      <c r="AY71" t="n">
+        <v>855</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>1085</v>
+      </c>
       <c r="BA71" t="inlineStr"/>
       <c r="BB71" t="inlineStr"/>
       <c r="BC71" t="inlineStr"/>
@@ -13899,8 +13911,12 @@
       <c r="AX72" t="n">
         <v>-1112</v>
       </c>
-      <c r="AY72" t="inlineStr"/>
-      <c r="AZ72" t="inlineStr"/>
+      <c r="AY72" t="n">
+        <v>-7695</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>-305</v>
+      </c>
       <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr"/>
       <c r="BC72" t="inlineStr"/>
@@ -14064,8 +14080,12 @@
       <c r="AX73" t="n">
         <v>67848</v>
       </c>
-      <c r="AY73" t="inlineStr"/>
-      <c r="AZ73" t="inlineStr"/>
+      <c r="AY73" t="n">
+        <v>-75412.992</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>64947</v>
+      </c>
       <c r="BA73" t="n">
         <v>70643</v>
       </c>
@@ -14248,10 +14268,10 @@
         <v>-9389</v>
       </c>
       <c r="AY74" t="n">
-        <v>-1477</v>
+        <v>125316</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-685</v>
+        <v>-9881</v>
       </c>
       <c r="BA74" t="n">
         <v>-22460</v>
@@ -14604,10 +14624,10 @@
         <v>-9161</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>-6083</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>-7949</v>
       </c>
       <c r="BA76" t="n">
         <v>0</v>
@@ -14790,8 +14810,12 @@
       <c r="AX77" t="n">
         <v>0</v>
       </c>
-      <c r="AY77" t="inlineStr"/>
-      <c r="AZ77" t="inlineStr"/>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
       <c r="BA77" t="inlineStr"/>
       <c r="BB77" t="inlineStr"/>
       <c r="BC77" t="inlineStr"/>
@@ -15033,10 +15057,10 @@
         <v>49298</v>
       </c>
       <c r="AY79" t="n">
-        <v>0</v>
+        <v>43820.008</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0</v>
+        <v>47117</v>
       </c>
       <c r="BA79" t="n">
         <v>48183</v>
